--- a/shiftgenerator/data/dati.xlsx
+++ b/shiftgenerator/data/dati.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cross_os\sviluppo\java_projects\shiftgenerator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BD040F-97D8-4224-AD35-E57E7E8C96DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B584BFB0-F145-481C-BCED-72D2BF35BF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="915" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="915" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Turni" sheetId="3" r:id="rId1"/>
-    <sheet name="Persone-Indisp" sheetId="2" r:id="rId2"/>
-    <sheet name="Calendario" sheetId="4" r:id="rId3"/>
-    <sheet name="Turni fissi" sheetId="5" r:id="rId4"/>
+    <sheet name="Slot" sheetId="3" r:id="rId1"/>
+    <sheet name="Worker unaivability" sheetId="2" r:id="rId2"/>
+    <sheet name="Slot Pattern" sheetId="4" r:id="rId3"/>
+    <sheet name="set slot" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="61">
   <si>
     <t>EMOTECA_PARCO_RUFFINI</t>
   </si>
@@ -191,6 +191,21 @@
   </si>
   <si>
     <t>EMO_RUF,EMO_GR,EMO_PS</t>
+  </si>
+  <si>
+    <t>Sigla</t>
+  </si>
+  <si>
+    <t>Descrizione</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Giornata di indisponibilita totale(FERIE) può essere usato ALL indistintamente</t>
+  </si>
+  <si>
+    <t>AVIS 2022-01</t>
   </si>
 </sst>
 </file>
@@ -201,7 +216,7 @@
     <numFmt numFmtId="164" formatCode="d/m;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,13 +240,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -243,11 +270,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -263,9 +291,14 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutrale" xfId="2" builtinId="28"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -578,57 +611,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAAC324-18CF-401F-8439-1A49445CF1C2}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="83.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>50</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>51</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>52</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -637,10 +692,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AI24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,6 +949,9 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -922,6 +980,9 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1042,6 +1103,12 @@
         <v>33</v>
       </c>
       <c r="E12" s="4"/>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="4"/>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E24" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1064,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792F31EA-A43E-4251-A064-1484873BE389}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:F13"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,40 +1143,44 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>44562</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44563</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44564</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>54</v>
       </c>
@@ -1119,14 +1190,14 @@
       <c r="E4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44565</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>54</v>
       </c>
@@ -1136,14 +1207,14 @@
       <c r="E5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44566</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>54</v>
       </c>
@@ -1153,22 +1224,22 @@
       <c r="E6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44567</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44568</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>54</v>
       </c>
@@ -1178,27 +1249,27 @@
       <c r="E8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>44569</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44570</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>44571</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>54</v>
       </c>
@@ -1208,14 +1279,14 @@
       <c r="E11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>44572</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>54</v>
       </c>
@@ -1225,14 +1296,14 @@
       <c r="E12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>44573</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>54</v>
       </c>
@@ -1245,14 +1316,14 @@
       <c r="F13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>44574</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>54</v>
       </c>
@@ -1262,14 +1333,14 @@
       <c r="E14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>44575</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>54</v>
       </c>
@@ -1279,27 +1350,27 @@
       <c r="E15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>44576</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>44577</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>44578</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>54</v>
       </c>
@@ -1309,14 +1380,14 @@
       <c r="E18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>44579</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>54</v>
       </c>
@@ -1326,14 +1397,14 @@
       <c r="E19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>44580</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>54</v>
       </c>
@@ -1346,14 +1417,14 @@
       <c r="F20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44581</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>54</v>
       </c>
@@ -1363,14 +1434,14 @@
       <c r="E21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44582</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>54</v>
       </c>
@@ -1380,27 +1451,27 @@
       <c r="E22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44583</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44584</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>44585</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>54</v>
       </c>
@@ -1410,14 +1481,14 @@
       <c r="E25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>44586</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1427,14 +1498,14 @@
       <c r="E26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>44587</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>54</v>
       </c>
@@ -1447,14 +1518,14 @@
       <c r="F27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>44588</v>
       </c>
+      <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>54</v>
       </c>
@@ -1464,14 +1535,14 @@
       <c r="E28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>44589</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>54</v>
       </c>
@@ -1481,27 +1552,27 @@
       <c r="E29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>44590</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>44591</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>44592</v>
       </c>
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C32" s="1" t="s">
         <v>54</v>
       </c>
@@ -1509,9 +1580,6 @@
         <v>54</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1525,7 +1593,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,19 +1603,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1632,82 +1703,83 @@
         <v>44576</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>44577</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>44578</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>44579</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>44580</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>44581</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>44582</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>44583</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44584</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>44585</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>44586</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>44587</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>44588</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>44589</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>44590</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>44591</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>44592</v>
       </c>
